--- a/Data/source/Chinese/Chinese Water footprint (Chinese) version FINAL.xls.xlsx
+++ b/Data/source/Chinese/Chinese Water footprint (Chinese) version FINAL.xls.xlsx
@@ -67,7 +67,7 @@
     <t>板栗</t>
   </si>
   <si>
-    <t xml:space="preserve">栗，中国板栗，栗子，毛栗子 </t>
+    <t>栗，中国板栗，栗子，毛栗子</t>
   </si>
   <si>
     <t>Peppermint</t>
@@ -334,7 +334,7 @@
     <t>大蒜</t>
   </si>
   <si>
-    <t> 蒜，蒜头，独蒜，胡蒜</t>
+    <t>蒜，蒜头，独蒜，胡蒜</t>
   </si>
   <si>
     <t>Cloves</t>
@@ -484,8 +484,7 @@
     <t>Brussels sprouts</t>
   </si>
   <si>
-    <t>甘蓝
-</t>
+    <t>甘蓝</t>
   </si>
   <si>
     <t>小圆白菜，小卷心菜，芽卷心菜，芽甘蓝</t>
@@ -620,7 +619,7 @@
     <t>红枣</t>
   </si>
   <si>
-    <t xml:space="preserve">枣子，大枣，大甜枣 </t>
+    <t>枣子，大枣，大甜枣</t>
   </si>
   <si>
     <t>Carrots</t>
@@ -683,7 +682,7 @@
     <t>黄瓜</t>
   </si>
   <si>
-    <t xml:space="preserve">胡瓜，刺瓜，王瓜，勤瓜，青瓜，唐瓜，吊瓜 </t>
+    <t>胡瓜，刺瓜，王瓜，勤瓜，青瓜，唐瓜，吊瓜</t>
   </si>
   <si>
     <t>Jute</t>
@@ -710,7 +709,7 @@
     <t>茴香</t>
   </si>
   <si>
-    <t xml:space="preserve">藏茴香，安启，印度小茴香 </t>
+    <t>藏茴香，安启，印度小茴香</t>
   </si>
   <si>
     <t>Egg</t>
@@ -1034,7 +1033,7 @@
     <t>猕猴桃</t>
   </si>
   <si>
-    <t xml:space="preserve">奇异果，阳桃，羊桃， 狐狸桃，野梨，藤梨，猴仔梨 </t>
+    <t>奇异果，阳桃，羊桃， 狐狸桃，野梨，藤梨，猴仔梨</t>
   </si>
   <si>
     <t>Cotton linters</t>
@@ -1172,7 +1171,7 @@
     <t>南瓜</t>
   </si>
   <si>
-    <t xml:space="preserve">番瓜，北瓜，饭瓜，番南瓜，方瓜，麦瓜，倭瓜，金金瓜，吊瓜 </t>
+    <t>番瓜，北瓜，饭瓜，番南瓜，方瓜，麦瓜，倭瓜，金金瓜，吊瓜</t>
   </si>
   <si>
     <t>Gherkins</t>
@@ -1490,7 +1489,7 @@
     <t>土豆</t>
   </si>
   <si>
-    <t xml:space="preserve">洋芋，荷兰薯，地蛋，薯仔，荷兰薯，番仔薯 </t>
+    <t>洋芋，荷兰薯，地蛋，薯仔，荷兰薯，番仔薯</t>
   </si>
   <si>
     <t>Potato starch</t>
@@ -1571,7 +1570,7 @@
     <t>西葫芦</t>
   </si>
   <si>
-    <t xml:space="preserve">白瓜，小瓜，菜瓜，熏瓜 </t>
+    <t>白瓜，小瓜，菜瓜，熏瓜</t>
   </si>
   <si>
     <t>Broccoli</t>
@@ -1838,7 +1837,7 @@
     <t>椰子</t>
   </si>
   <si>
-    <t xml:space="preserve">胥余，越王头，椰瓢，大椰 </t>
+    <t>胥余，越王头，椰瓢，大椰</t>
   </si>
   <si>
     <t>Coconut, husked</t>
@@ -1895,7 +1894,7 @@
     <t>樱桃</t>
   </si>
   <si>
-    <t xml:space="preserve">车厘子，莺桃，荆桃，楔桃，英桃，牛桃，樱珠，含桃，樱珠 </t>
+    <t>车厘子，莺桃，荆桃，楔桃，英桃，牛桃，樱珠，含桃，樱珠</t>
   </si>
   <si>
     <t>Chick peas</t>
@@ -2084,7 +2083,7 @@
     <t>苎麻</t>
   </si>
   <si>
-    <t xml:space="preserve">野麻，野苎麻，家麻，苎仔，青麻，白麻 </t>
+    <t>野麻，野苎麻，家麻，苎仔，青麻，白麻</t>
   </si>
   <si>
     <t>Seed cotton</t>
@@ -2484,7 +2483,7 @@
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="8">
@@ -3772,7 +3771,7 @@
       <c r="D37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="8">
@@ -4500,7 +4499,7 @@
         <v>156</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="6" t="s">
         <v>157</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -5146,7 +5145,7 @@
       <c r="D69" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="6" t="s">
         <v>202</v>
       </c>
       <c r="F69" s="8">
@@ -5447,7 +5446,7 @@
       <c r="D76" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="6" t="s">
         <v>223</v>
       </c>
       <c r="F76" s="8">
@@ -5576,7 +5575,7 @@
       <c r="D79" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="6" t="s">
         <v>232</v>
       </c>
       <c r="F79" s="8">
@@ -7161,7 +7160,7 @@
       <c r="D116" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="6" t="s">
         <v>340</v>
       </c>
       <c r="F116" s="8">
@@ -7851,7 +7850,7 @@
       <c r="D132" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="6" t="s">
         <v>386</v>
       </c>
       <c r="F132" s="8">
@@ -9323,7 +9322,7 @@
       <c r="D166" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="6" t="s">
         <v>492</v>
       </c>
       <c r="F166" s="8">
@@ -9710,7 +9709,7 @@
       <c r="D175" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E175" s="6" t="s">
         <v>519</v>
       </c>
       <c r="F175" s="8">
@@ -11002,7 +11001,7 @@
       <c r="D205" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="E205" s="4" t="s">
+      <c r="E205" s="6" t="s">
         <v>608</v>
       </c>
       <c r="F205" s="8">
@@ -11264,7 +11263,7 @@
       <c r="D211" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="E211" s="6" t="s">
         <v>627</v>
       </c>
       <c r="F211" s="8">
@@ -12181,7 +12180,7 @@
       <c r="D232" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="E232" s="4" t="s">
+      <c r="E232" s="6" t="s">
         <v>690</v>
       </c>
       <c r="F232" s="8">

--- a/Data/source/Chinese/Chinese Water footprint (Chinese) version FINAL.xls.xlsx
+++ b/Data/source/Chinese/Chinese Water footprint (Chinese) version FINAL.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="700">
   <si>
     <t>Product</t>
   </si>
@@ -892,15 +892,6 @@
     <t>向日葵籽油，葵花油</t>
   </si>
   <si>
-    <t>Pepper</t>
-  </si>
-  <si>
-    <t>辣椒</t>
-  </si>
-  <si>
-    <t>辣子，辣角，牛角椒，红海椒，朝天椒，柿子椒，灯笼椒</t>
-  </si>
-  <si>
     <t>Blueberries</t>
   </si>
   <si>
@@ -1831,16 +1822,16 @@
     <t>椰仁干，干椰子肉</t>
   </si>
   <si>
-    <t>Coconuts</t>
-  </si>
-  <si>
-    <t>椰子</t>
+    <t>Coconuts, dehusked</t>
+  </si>
+  <si>
+    <t>椰子，脱壳</t>
   </si>
   <si>
     <t>胥余，越王头，椰瓢，大椰</t>
   </si>
   <si>
-    <t>Coconut, husked</t>
+    <t>Coconut, with husk</t>
   </si>
   <si>
     <t>椰子，带壳</t>
@@ -1855,10 +1846,10 @@
     <t>Coir</t>
   </si>
   <si>
-    <t>椰子纤维</t>
-  </si>
-  <si>
-    <t>椰壳纤维，椰皮纤维，椰子壳粗纤维</t>
+    <t>椰壳纤维</t>
+  </si>
+  <si>
+    <t>椰子纤维，椰皮纤维，椰子壳粗纤维</t>
   </si>
   <si>
     <t>Coconut oil</t>
@@ -2126,7 +2117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2145,6 +2136,10 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2166,7 +2161,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -2189,7 +2184,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2212,10 +2212,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="22.43"/>
-    <col customWidth="1" min="3" max="3" width="17.71"/>
-    <col customWidth="1" min="4" max="4" width="18.86"/>
-    <col customWidth="1" min="5" max="5" width="40.71"/>
+    <col customWidth="1" min="1" max="1" width="7.29"/>
+    <col customWidth="1" min="2" max="2" width="19.86"/>
+    <col customWidth="1" min="3" max="3" width="6.14"/>
+    <col customWidth="1" min="4" max="4" width="19.14"/>
+    <col customWidth="1" min="5" max="5" width="13.71"/>
     <col customWidth="1" min="6" max="6" width="19.71"/>
     <col customWidth="1" min="7" max="7" width="8.29"/>
     <col customWidth="1" min="8" max="17" width="14.29"/>
@@ -6506,7 +6507,7 @@
     </row>
     <row r="101" ht="21.0" customHeight="1">
       <c r="A101" s="6">
-        <v>157.0</v>
+        <v>22.0</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>293</v>
@@ -6519,10 +6520,10 @@
         <v>295</v>
       </c>
       <c r="F101" s="8">
-        <v>7611.0</v>
+        <v>845.0</v>
       </c>
       <c r="G101" s="6">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -6549,7 +6550,7 @@
     </row>
     <row r="102" ht="21.0" customHeight="1">
       <c r="A102" s="6">
-        <v>22.0</v>
+        <v>153.0</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>296</v>
@@ -6562,10 +6563,10 @@
         <v>298</v>
       </c>
       <c r="F102" s="8">
-        <v>845.0</v>
+        <v>922.0</v>
       </c>
       <c r="G102" s="6">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -6592,7 +6593,7 @@
     </row>
     <row r="103" ht="21.0" customHeight="1">
       <c r="A103" s="6">
-        <v>153.0</v>
+        <v>164.0</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>299</v>
@@ -6605,10 +6606,10 @@
         <v>301</v>
       </c>
       <c r="F103" s="8">
-        <v>922.0</v>
+        <v>2180.0</v>
       </c>
       <c r="G103" s="6">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -6635,7 +6636,7 @@
     </row>
     <row r="104" ht="21.0" customHeight="1">
       <c r="A104" s="6">
-        <v>164.0</v>
+        <v>2.0</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>302</v>
@@ -6648,10 +6649,10 @@
         <v>304</v>
       </c>
       <c r="F104" s="8">
-        <v>2180.0</v>
+        <v>6549.0</v>
       </c>
       <c r="G104" s="6">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -6678,7 +6679,7 @@
     </row>
     <row r="105" ht="21.0" customHeight="1">
       <c r="A105" s="6">
-        <v>2.0</v>
+        <v>122.0</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>305</v>
@@ -6691,10 +6692,10 @@
         <v>307</v>
       </c>
       <c r="F105" s="8">
-        <v>6549.0</v>
+        <v>748.0</v>
       </c>
       <c r="G105" s="6">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -6721,7 +6722,7 @@
     </row>
     <row r="106" ht="21.0" customHeight="1">
       <c r="A106" s="6">
-        <v>122.0</v>
+        <v>12.0</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>308</v>
@@ -6734,10 +6735,10 @@
         <v>310</v>
       </c>
       <c r="F106" s="8">
-        <v>748.0</v>
+        <v>2150.0</v>
       </c>
       <c r="G106" s="6">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -6764,7 +6765,7 @@
     </row>
     <row r="107" ht="21.0" customHeight="1">
       <c r="A107" s="6">
-        <v>12.0</v>
+        <v>223.0</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>311</v>
@@ -6777,10 +6778,10 @@
         <v>313</v>
       </c>
       <c r="F107" s="8">
-        <v>2150.0</v>
+        <v>195.0</v>
       </c>
       <c r="G107" s="6">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -6807,7 +6808,7 @@
     </row>
     <row r="108" ht="21.0" customHeight="1">
       <c r="A108" s="6">
-        <v>223.0</v>
+        <v>93.0</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>314</v>
@@ -6816,14 +6817,12 @@
       <c r="D108" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="E108" s="4"/>
       <c r="F108" s="8">
-        <v>195.0</v>
+        <v>8856.0</v>
       </c>
       <c r="G108" s="6">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -6850,21 +6849,25 @@
     </row>
     <row r="109" ht="21.0" customHeight="1">
       <c r="A109" s="6">
-        <v>93.0</v>
+        <v>125.0</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C109" s="7"/>
       <c r="D109" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="E109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="F109" s="8">
-        <v>8856.0</v>
+        <v>20388.0</v>
       </c>
       <c r="G109" s="6">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -6891,14 +6894,12 @@
     </row>
     <row r="110" ht="21.0" customHeight="1">
       <c r="A110" s="6">
-        <v>125.0</v>
+        <v>17.0</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C110" s="7" t="s">
         <v>320</v>
       </c>
+      <c r="C110" s="7"/>
       <c r="D110" s="4" t="s">
         <v>321</v>
       </c>
@@ -6906,10 +6907,10 @@
         <v>322</v>
       </c>
       <c r="F110" s="8">
-        <v>20388.0</v>
+        <v>1977.0</v>
       </c>
       <c r="G110" s="6">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -6936,7 +6937,7 @@
     </row>
     <row r="111" ht="21.0" customHeight="1">
       <c r="A111" s="6">
-        <v>17.0</v>
+        <v>121.0</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>323</v>
@@ -6949,10 +6950,10 @@
         <v>325</v>
       </c>
       <c r="F111" s="8">
-        <v>1977.0</v>
+        <v>2437.0</v>
       </c>
       <c r="G111" s="6">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -6979,7 +6980,7 @@
     </row>
     <row r="112" ht="21.0" customHeight="1">
       <c r="A112" s="6">
-        <v>121.0</v>
+        <v>120.0</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>326</v>
@@ -6992,10 +6993,10 @@
         <v>328</v>
       </c>
       <c r="F112" s="8">
-        <v>2437.0</v>
+        <v>1950.0</v>
       </c>
       <c r="G112" s="6">
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
@@ -7022,7 +7023,7 @@
     </row>
     <row r="113" ht="21.0" customHeight="1">
       <c r="A113" s="6">
-        <v>120.0</v>
+        <v>68.0</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>329</v>
@@ -7035,10 +7036,10 @@
         <v>331</v>
       </c>
       <c r="F113" s="8">
-        <v>1950.0</v>
+        <v>276.0</v>
       </c>
       <c r="G113" s="6">
-        <v>111.0</v>
+        <v>112.0</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -7065,7 +7066,7 @@
     </row>
     <row r="114" ht="21.0" customHeight="1">
       <c r="A114" s="6">
-        <v>68.0</v>
+        <v>123.0</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>332</v>
@@ -7078,10 +7079,10 @@
         <v>334</v>
       </c>
       <c r="F114" s="8">
-        <v>276.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G114" s="6">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -7108,7 +7109,7 @@
     </row>
     <row r="115" ht="21.0" customHeight="1">
       <c r="A115" s="6">
-        <v>123.0</v>
+        <v>105.0</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>335</v>
@@ -7117,14 +7118,14 @@
       <c r="D115" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="6" t="s">
         <v>337</v>
       </c>
       <c r="F115" s="8">
-        <v>1800.0</v>
+        <v>514.0</v>
       </c>
       <c r="G115" s="6">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -7151,7 +7152,7 @@
     </row>
     <row r="116" ht="21.0" customHeight="1">
       <c r="A116" s="6">
-        <v>105.0</v>
+        <v>64.0</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>338</v>
@@ -7160,14 +7161,14 @@
       <c r="D116" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="4" t="s">
         <v>340</v>
       </c>
       <c r="F116" s="8">
-        <v>514.0</v>
+        <v>2602.0</v>
       </c>
       <c r="G116" s="6">
-        <v>114.0</v>
+        <v>115.0</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -7194,7 +7195,7 @@
     </row>
     <row r="117" ht="21.0" customHeight="1">
       <c r="A117" s="6">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>341</v>
@@ -7207,10 +7208,10 @@
         <v>343</v>
       </c>
       <c r="F117" s="8">
-        <v>2602.0</v>
+        <v>1332.0</v>
       </c>
       <c r="G117" s="6">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
@@ -7237,23 +7238,23 @@
     </row>
     <row r="118" ht="21.0" customHeight="1">
       <c r="A118" s="6">
-        <v>65.0</v>
+        <v>63.0</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="F118" s="8">
-        <v>1332.0</v>
+        <v>9113.0</v>
       </c>
       <c r="G118" s="6">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -7280,23 +7281,23 @@
     </row>
     <row r="119" ht="21.0" customHeight="1">
       <c r="A119" s="6">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>348</v>
       </c>
       <c r="F119" s="8">
-        <v>9113.0</v>
+        <v>9982.0</v>
       </c>
       <c r="G119" s="6">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -7323,7 +7324,7 @@
     </row>
     <row r="120" ht="21.0" customHeight="1">
       <c r="A120" s="6">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>349</v>
@@ -7336,10 +7337,10 @@
         <v>351</v>
       </c>
       <c r="F120" s="8">
-        <v>9982.0</v>
+        <v>3957.0</v>
       </c>
       <c r="G120" s="6">
-        <v>118.0</v>
+        <v>119.0</v>
       </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
@@ -7366,23 +7367,23 @@
     </row>
     <row r="121" ht="21.0" customHeight="1">
       <c r="A121" s="6">
-        <v>66.0</v>
+        <v>73.0</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C121" s="7"/>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="9" t="s">
         <v>353</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F121" s="8">
-        <v>3957.0</v>
+        <v>1849.0</v>
       </c>
       <c r="G121" s="6">
-        <v>119.0</v>
+        <v>120.0</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -7409,23 +7410,23 @@
     </row>
     <row r="122" ht="21.0" customHeight="1">
       <c r="A122" s="6">
-        <v>73.0</v>
+        <v>151.0</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>355</v>
       </c>
       <c r="C122" s="7"/>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="4" t="s">
         <v>356</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>357</v>
       </c>
       <c r="F122" s="8">
-        <v>1849.0</v>
+        <v>460.0</v>
       </c>
       <c r="G122" s="6">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -7452,23 +7453,25 @@
     </row>
     <row r="123" ht="21.0" customHeight="1">
       <c r="A123" s="6">
-        <v>151.0</v>
+        <v>126.0</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C123" s="7"/>
+      <c r="C123" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="D123" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F123" s="8">
-        <v>460.0</v>
+        <v>564.0</v>
       </c>
       <c r="G123" s="6">
-        <v>121.0</v>
+        <v>122.0</v>
       </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
@@ -7495,25 +7498,23 @@
     </row>
     <row r="124" ht="21.0" customHeight="1">
       <c r="A124" s="6">
-        <v>126.0</v>
+        <v>213.0</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C124" s="7" t="s">
         <v>362</v>
       </c>
+      <c r="C124" s="7"/>
       <c r="D124" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="F124" s="8">
-        <v>564.0</v>
+        <v>1436.0</v>
       </c>
       <c r="G124" s="6">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -7540,23 +7541,25 @@
     </row>
     <row r="125" ht="21.0" customHeight="1">
       <c r="A125" s="6">
-        <v>213.0</v>
+        <v>127.0</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>366</v>
       </c>
       <c r="F125" s="8">
-        <v>1436.0</v>
+        <v>2254.0</v>
       </c>
       <c r="G125" s="6">
-        <v>123.0</v>
+        <v>124.0</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
@@ -7583,14 +7586,12 @@
     </row>
     <row r="126" ht="21.0" customHeight="1">
       <c r="A126" s="6">
-        <v>127.0</v>
+        <v>212.0</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>362</v>
-      </c>
+      <c r="C126" s="7"/>
       <c r="D126" s="4" t="s">
         <v>368</v>
       </c>
@@ -7598,10 +7599,10 @@
         <v>369</v>
       </c>
       <c r="F126" s="8">
-        <v>2254.0</v>
+        <v>2818.0</v>
       </c>
       <c r="G126" s="6">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
@@ -7628,7 +7629,7 @@
     </row>
     <row r="127" ht="21.0" customHeight="1">
       <c r="A127" s="6">
-        <v>212.0</v>
+        <v>72.0</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>370</v>
@@ -7641,10 +7642,10 @@
         <v>372</v>
       </c>
       <c r="F127" s="8">
-        <v>2818.0</v>
+        <v>1610.0</v>
       </c>
       <c r="G127" s="6">
-        <v>125.0</v>
+        <v>126.0</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
@@ -7671,23 +7672,21 @@
     </row>
     <row r="128" ht="21.0" customHeight="1">
       <c r="A128" s="6">
-        <v>72.0</v>
+        <v>79.0</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C128" s="7"/>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>375</v>
-      </c>
+      <c r="E128" s="4"/>
       <c r="F128" s="8">
-        <v>1610.0</v>
+        <v>1878.0</v>
       </c>
       <c r="G128" s="6">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
@@ -7714,21 +7713,23 @@
     </row>
     <row r="129" ht="21.0" customHeight="1">
       <c r="A129" s="6">
-        <v>79.0</v>
+        <v>130.0</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="9" t="s">
+      <c r="E129" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E129" s="4"/>
       <c r="F129" s="8">
-        <v>1878.0</v>
+        <v>4745.0</v>
       </c>
       <c r="G129" s="6">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
@@ -7755,7 +7756,7 @@
     </row>
     <row r="130" ht="21.0" customHeight="1">
       <c r="A130" s="6">
-        <v>130.0</v>
+        <v>38.0</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>378</v>
@@ -7768,10 +7769,10 @@
         <v>380</v>
       </c>
       <c r="F130" s="8">
-        <v>4745.0</v>
+        <v>5060.0</v>
       </c>
       <c r="G130" s="6">
-        <v>128.0</v>
+        <v>129.0</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
@@ -7798,7 +7799,7 @@
     </row>
     <row r="131" ht="21.0" customHeight="1">
       <c r="A131" s="6">
-        <v>38.0</v>
+        <v>171.0</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>381</v>
@@ -7807,14 +7808,14 @@
       <c r="D131" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="6" t="s">
         <v>383</v>
       </c>
       <c r="F131" s="8">
-        <v>5060.0</v>
+        <v>336.0</v>
       </c>
       <c r="G131" s="6">
-        <v>129.0</v>
+        <v>130.0</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
@@ -7841,7 +7842,7 @@
     </row>
     <row r="132" ht="21.0" customHeight="1">
       <c r="A132" s="6">
-        <v>171.0</v>
+        <v>83.0</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>384</v>
@@ -7850,14 +7851,14 @@
       <c r="D132" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="4" t="s">
         <v>386</v>
       </c>
       <c r="F132" s="8">
-        <v>336.0</v>
+        <v>353.0</v>
       </c>
       <c r="G132" s="6">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
@@ -7884,7 +7885,7 @@
     </row>
     <row r="133" ht="21.0" customHeight="1">
       <c r="A133" s="6">
-        <v>83.0</v>
+        <v>109.0</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>387</v>
@@ -7897,10 +7898,10 @@
         <v>389</v>
       </c>
       <c r="F133" s="8">
-        <v>353.0</v>
+        <v>642.0</v>
       </c>
       <c r="G133" s="6">
-        <v>131.0</v>
+        <v>132.0</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
@@ -7927,7 +7928,7 @@
     </row>
     <row r="134" ht="21.0" customHeight="1">
       <c r="A134" s="6">
-        <v>109.0</v>
+        <v>129.0</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>390</v>
@@ -7940,10 +7941,10 @@
         <v>392</v>
       </c>
       <c r="F134" s="8">
-        <v>642.0</v>
+        <v>1020.0</v>
       </c>
       <c r="G134" s="6">
-        <v>132.0</v>
+        <v>133.0</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
@@ -7970,7 +7971,7 @@
     </row>
     <row r="135" ht="21.0" customHeight="1">
       <c r="A135" s="6">
-        <v>129.0</v>
+        <v>108.0</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>393</v>
@@ -7983,10 +7984,10 @@
         <v>395</v>
       </c>
       <c r="F135" s="8">
-        <v>1020.0</v>
+        <v>17093.0</v>
       </c>
       <c r="G135" s="6">
-        <v>133.0</v>
+        <v>134.0</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -8013,23 +8014,25 @@
     </row>
     <row r="136" ht="21.0" customHeight="1">
       <c r="A136" s="6">
-        <v>108.0</v>
+        <v>20.0</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C136" s="7"/>
+      <c r="C136" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="D136" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F136" s="8">
-        <v>17093.0</v>
+        <v>15415.0</v>
       </c>
       <c r="G136" s="6">
-        <v>134.0</v>
+        <v>135.0</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
@@ -8056,14 +8059,12 @@
     </row>
     <row r="137" ht="21.0" customHeight="1">
       <c r="A137" s="6">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C137" s="7" t="s">
         <v>400</v>
       </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="4" t="s">
         <v>401</v>
       </c>
@@ -8071,10 +8072,10 @@
         <v>402</v>
       </c>
       <c r="F137" s="8">
-        <v>15415.0</v>
+        <v>1981.0</v>
       </c>
       <c r="G137" s="6">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
@@ -8101,7 +8102,7 @@
     </row>
     <row r="138" ht="21.0" customHeight="1">
       <c r="A138" s="6">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>403</v>
@@ -8114,10 +8115,10 @@
         <v>405</v>
       </c>
       <c r="F138" s="8">
-        <v>1981.0</v>
+        <v>298.0</v>
       </c>
       <c r="G138" s="6">
-        <v>136.0</v>
+        <v>137.0</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -8144,7 +8145,7 @@
     </row>
     <row r="139" ht="21.0" customHeight="1">
       <c r="A139" s="6">
-        <v>21.0</v>
+        <v>102.0</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>406</v>
@@ -8157,10 +8158,10 @@
         <v>408</v>
       </c>
       <c r="F139" s="8">
-        <v>298.0</v>
+        <v>4065.0</v>
       </c>
       <c r="G139" s="6">
-        <v>137.0</v>
+        <v>138.0</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -8187,7 +8188,7 @@
     </row>
     <row r="140" ht="21.0" customHeight="1">
       <c r="A140" s="6">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>409</v>
@@ -8200,10 +8201,10 @@
         <v>411</v>
       </c>
       <c r="F140" s="8">
-        <v>4065.0</v>
+        <v>16259.0</v>
       </c>
       <c r="G140" s="6">
-        <v>138.0</v>
+        <v>139.0</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
@@ -8230,7 +8231,7 @@
     </row>
     <row r="141" ht="21.0" customHeight="1">
       <c r="A141" s="6">
-        <v>103.0</v>
+        <v>8.0</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>412</v>
@@ -8243,10 +8244,10 @@
         <v>414</v>
       </c>
       <c r="F141" s="8">
-        <v>16259.0</v>
+        <v>822.0</v>
       </c>
       <c r="G141" s="6">
-        <v>139.0</v>
+        <v>140.0</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -8273,7 +8274,7 @@
     </row>
     <row r="142" ht="21.0" customHeight="1">
       <c r="A142" s="6">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>415</v>
@@ -8286,10 +8287,10 @@
         <v>417</v>
       </c>
       <c r="F142" s="8">
-        <v>822.0</v>
+        <v>6847.0</v>
       </c>
       <c r="G142" s="6">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
@@ -8316,7 +8317,7 @@
     </row>
     <row r="143" ht="21.0" customHeight="1">
       <c r="A143" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>418</v>
@@ -8329,10 +8330,10 @@
         <v>420</v>
       </c>
       <c r="F143" s="8">
-        <v>6847.0</v>
+        <v>1141.0</v>
       </c>
       <c r="G143" s="6">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
@@ -8359,7 +8360,7 @@
     </row>
     <row r="144" ht="21.0" customHeight="1">
       <c r="A144" s="6">
-        <v>6.0</v>
+        <v>91.0</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>421</v>
@@ -8372,10 +8373,10 @@
         <v>423</v>
       </c>
       <c r="F144" s="8">
-        <v>1141.0</v>
+        <v>608.0</v>
       </c>
       <c r="G144" s="6">
-        <v>142.0</v>
+        <v>143.0</v>
       </c>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
@@ -8402,7 +8403,7 @@
     </row>
     <row r="145" ht="21.0" customHeight="1">
       <c r="A145" s="6">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>424</v>
@@ -8415,10 +8416,10 @@
         <v>426</v>
       </c>
       <c r="F145" s="8">
-        <v>608.0</v>
+        <v>2433.0</v>
       </c>
       <c r="G145" s="6">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -8445,23 +8446,25 @@
     </row>
     <row r="146" ht="21.0" customHeight="1">
       <c r="A146" s="6">
-        <v>92.0</v>
+        <v>88.0</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C146" s="7"/>
+      <c r="C146" s="7" t="s">
+        <v>428</v>
+      </c>
       <c r="D146" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F146" s="8">
-        <v>2433.0</v>
+        <v>869.0</v>
       </c>
       <c r="G146" s="6">
-        <v>144.0</v>
+        <v>145.0</v>
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
@@ -8488,14 +8491,12 @@
     </row>
     <row r="147" ht="21.0" customHeight="1">
       <c r="A147" s="6">
-        <v>88.0</v>
+        <v>26.0</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C147" s="7" t="s">
         <v>431</v>
       </c>
+      <c r="C147" s="7"/>
       <c r="D147" s="4" t="s">
         <v>432</v>
       </c>
@@ -8503,10 +8504,10 @@
         <v>433</v>
       </c>
       <c r="F147" s="8">
-        <v>869.0</v>
+        <v>3142.0</v>
       </c>
       <c r="G147" s="6">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
@@ -8533,7 +8534,7 @@
     </row>
     <row r="148" ht="21.0" customHeight="1">
       <c r="A148" s="6">
-        <v>26.0</v>
+        <v>45.0</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>434</v>
@@ -8546,10 +8547,10 @@
         <v>436</v>
       </c>
       <c r="F148" s="8">
-        <v>3142.0</v>
+        <v>17196.0</v>
       </c>
       <c r="G148" s="6">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -8576,23 +8577,25 @@
     </row>
     <row r="149" ht="21.0" customHeight="1">
       <c r="A149" s="6">
-        <v>45.0</v>
+        <v>75.0</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C149" s="7"/>
+      <c r="C149" s="7" t="s">
+        <v>438</v>
+      </c>
       <c r="D149" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F149" s="8">
-        <v>17196.0</v>
+        <v>362.0</v>
       </c>
       <c r="G149" s="6">
-        <v>147.0</v>
+        <v>148.0</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
@@ -8619,25 +8622,25 @@
     </row>
     <row r="150" ht="21.0" customHeight="1">
       <c r="A150" s="6">
-        <v>75.0</v>
+        <v>145.0</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F150" s="8">
-        <v>362.0</v>
+        <v>272.0</v>
       </c>
       <c r="G150" s="6">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
@@ -8664,14 +8667,12 @@
     </row>
     <row r="151" ht="21.0" customHeight="1">
       <c r="A151" s="6">
-        <v>145.0</v>
+        <v>44.0</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C151" s="7" t="s">
         <v>445</v>
       </c>
+      <c r="C151" s="7"/>
       <c r="D151" s="4" t="s">
         <v>446</v>
       </c>
@@ -8679,10 +8680,10 @@
         <v>447</v>
       </c>
       <c r="F151" s="8">
-        <v>272.0</v>
+        <v>379.0</v>
       </c>
       <c r="G151" s="6">
-        <v>149.0</v>
+        <v>150.0</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -8709,7 +8710,7 @@
     </row>
     <row r="152" ht="21.0" customHeight="1">
       <c r="A152" s="6">
-        <v>44.0</v>
+        <v>140.0</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>448</v>
@@ -8722,10 +8723,10 @@
         <v>450</v>
       </c>
       <c r="F152" s="8">
-        <v>379.0</v>
+        <v>576.0</v>
       </c>
       <c r="G152" s="6">
-        <v>150.0</v>
+        <v>151.0</v>
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
@@ -8752,23 +8753,25 @@
     </row>
     <row r="153" ht="21.0" customHeight="1">
       <c r="A153" s="6">
-        <v>140.0</v>
+        <v>135.0</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="4" t="s">
+      <c r="C153" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="D153" s="9" t="s">
         <v>453</v>
       </c>
+      <c r="E153" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="F153" s="8">
-        <v>576.0</v>
+        <v>34319.0</v>
       </c>
       <c r="G153" s="6">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
@@ -8795,25 +8798,25 @@
     </row>
     <row r="154" ht="21.0" customHeight="1">
       <c r="A154" s="6">
-        <v>135.0</v>
+        <v>85.0</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F154" s="8">
-        <v>34319.0</v>
+        <v>5521.0</v>
       </c>
       <c r="G154" s="6">
-        <v>152.0</v>
+        <v>153.0</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
@@ -8840,25 +8843,23 @@
     </row>
     <row r="155" ht="21.0" customHeight="1">
       <c r="A155" s="6">
-        <v>85.0</v>
+        <v>234.0</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C155" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="C155" s="7"/>
+      <c r="D155" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="E155" s="4" t="s">
         <v>461</v>
       </c>
       <c r="F155" s="8">
-        <v>5521.0</v>
+        <v>343.0</v>
       </c>
       <c r="G155" s="6">
-        <v>153.0</v>
+        <v>154.0</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -8885,7 +8886,7 @@
     </row>
     <row r="156" ht="21.0" customHeight="1">
       <c r="A156" s="6">
-        <v>234.0</v>
+        <v>124.0</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>462</v>
@@ -8898,10 +8899,10 @@
         <v>464</v>
       </c>
       <c r="F156" s="8">
-        <v>343.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G156" s="6">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
@@ -8928,7 +8929,7 @@
     </row>
     <row r="157" ht="21.0" customHeight="1">
       <c r="A157" s="6">
-        <v>124.0</v>
+        <v>111.0</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>465</v>
@@ -8941,10 +8942,10 @@
         <v>467</v>
       </c>
       <c r="F157" s="8">
-        <v>1800.0</v>
+        <v>237.0</v>
       </c>
       <c r="G157" s="6">
-        <v>155.0</v>
+        <v>156.0</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
@@ -8971,7 +8972,7 @@
     </row>
     <row r="158" ht="21.0" customHeight="1">
       <c r="A158" s="6">
-        <v>111.0</v>
+        <v>175.0</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>468</v>
@@ -8984,10 +8985,10 @@
         <v>470</v>
       </c>
       <c r="F158" s="8">
-        <v>237.0</v>
+        <v>413.0</v>
       </c>
       <c r="G158" s="6">
-        <v>156.0</v>
+        <v>157.0</v>
       </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
@@ -9014,7 +9015,7 @@
     </row>
     <row r="159" ht="21.0" customHeight="1">
       <c r="A159" s="6">
-        <v>175.0</v>
+        <v>194.0</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>471</v>
@@ -9027,10 +9028,10 @@
         <v>473</v>
       </c>
       <c r="F159" s="8">
-        <v>413.0</v>
+        <v>1411.0</v>
       </c>
       <c r="G159" s="6">
-        <v>157.0</v>
+        <v>158.0</v>
       </c>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
@@ -9057,7 +9058,7 @@
     </row>
     <row r="160" ht="21.0" customHeight="1">
       <c r="A160" s="6">
-        <v>194.0</v>
+        <v>82.0</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>474</v>
@@ -9070,10 +9071,10 @@
         <v>476</v>
       </c>
       <c r="F160" s="8">
-        <v>1411.0</v>
+        <v>2265.0</v>
       </c>
       <c r="G160" s="6">
-        <v>158.0</v>
+        <v>159.0</v>
       </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
@@ -9100,7 +9101,7 @@
     </row>
     <row r="161" ht="21.0" customHeight="1">
       <c r="A161" s="6">
-        <v>82.0</v>
+        <v>152.0</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>477</v>
@@ -9113,10 +9114,10 @@
         <v>479</v>
       </c>
       <c r="F161" s="8">
-        <v>2265.0</v>
+        <v>910.0</v>
       </c>
       <c r="G161" s="6">
-        <v>159.0</v>
+        <v>160.0</v>
       </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
@@ -9143,7 +9144,7 @@
     </row>
     <row r="162" ht="21.0" customHeight="1">
       <c r="A162" s="6">
-        <v>152.0</v>
+        <v>133.0</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>480</v>
@@ -9152,14 +9153,12 @@
       <c r="D162" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>482</v>
-      </c>
+      <c r="E162" s="4"/>
       <c r="F162" s="8">
-        <v>910.0</v>
+        <v>13748.0</v>
       </c>
       <c r="G162" s="6">
-        <v>160.0</v>
+        <v>161.0</v>
       </c>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
@@ -9186,21 +9185,23 @@
     </row>
     <row r="163" ht="21.0" customHeight="1">
       <c r="A163" s="6">
-        <v>133.0</v>
+        <v>176.0</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="E163" s="4"/>
       <c r="F163" s="8">
-        <v>13748.0</v>
+        <v>865.0</v>
       </c>
       <c r="G163" s="6">
-        <v>161.0</v>
+        <v>162.0</v>
       </c>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
@@ -9227,23 +9228,23 @@
     </row>
     <row r="164" ht="21.0" customHeight="1">
       <c r="A164" s="6">
-        <v>176.0</v>
+        <v>206.0</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>485</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>487</v>
-      </c>
       <c r="F164" s="8">
-        <v>865.0</v>
+        <v>132.0</v>
       </c>
       <c r="G164" s="6">
-        <v>162.0</v>
+        <v>163.0</v>
       </c>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
@@ -9270,23 +9271,23 @@
     </row>
     <row r="165" ht="21.0" customHeight="1">
       <c r="A165" s="6">
-        <v>206.0</v>
+        <v>170.0</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="E165" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E165" s="6" t="s">
         <v>489</v>
       </c>
       <c r="F165" s="8">
-        <v>132.0</v>
+        <v>287.0</v>
       </c>
       <c r="G165" s="6">
-        <v>163.0</v>
+        <v>164.0</v>
       </c>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
@@ -9313,7 +9314,7 @@
     </row>
     <row r="166" ht="21.0" customHeight="1">
       <c r="A166" s="6">
-        <v>170.0</v>
+        <v>169.0</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>490</v>
@@ -9322,14 +9323,14 @@
       <c r="D166" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="4" t="s">
         <v>492</v>
       </c>
       <c r="F166" s="8">
-        <v>287.0</v>
+        <v>1512.0</v>
       </c>
       <c r="G166" s="6">
-        <v>164.0</v>
+        <v>165.0</v>
       </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -9356,7 +9357,7 @@
     </row>
     <row r="167" ht="21.0" customHeight="1">
       <c r="A167" s="6">
-        <v>169.0</v>
+        <v>168.0</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>493</v>
@@ -9369,10 +9370,10 @@
         <v>495</v>
       </c>
       <c r="F167" s="8">
-        <v>1512.0</v>
+        <v>1436.0</v>
       </c>
       <c r="G167" s="6">
-        <v>165.0</v>
+        <v>166.0</v>
       </c>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
@@ -9399,7 +9400,7 @@
     </row>
     <row r="168" ht="21.0" customHeight="1">
       <c r="A168" s="6">
-        <v>168.0</v>
+        <v>167.0</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>496</v>
@@ -9412,10 +9413,10 @@
         <v>498</v>
       </c>
       <c r="F168" s="8">
-        <v>1436.0</v>
+        <v>1044.0</v>
       </c>
       <c r="G168" s="6">
-        <v>166.0</v>
+        <v>167.0</v>
       </c>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
@@ -9442,23 +9443,23 @@
     </row>
     <row r="169" ht="21.0" customHeight="1">
       <c r="A169" s="6">
-        <v>167.0</v>
+        <v>154.0</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>499</v>
       </c>
       <c r="C169" s="7"/>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="9" t="s">
         <v>500</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>501</v>
       </c>
       <c r="F169" s="8">
-        <v>1044.0</v>
+        <v>1979.0</v>
       </c>
       <c r="G169" s="6">
-        <v>167.0</v>
+        <v>168.0</v>
       </c>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
@@ -9485,7 +9486,7 @@
     </row>
     <row r="170" ht="21.0" customHeight="1">
       <c r="A170" s="6">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>502</v>
@@ -9498,10 +9499,10 @@
         <v>504</v>
       </c>
       <c r="F170" s="8">
-        <v>1979.0</v>
+        <v>595.0</v>
       </c>
       <c r="G170" s="6">
-        <v>168.0</v>
+        <v>169.0</v>
       </c>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
@@ -9528,23 +9529,23 @@
     </row>
     <row r="171" ht="21.0" customHeight="1">
       <c r="A171" s="6">
-        <v>155.0</v>
+        <v>77.0</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>505</v>
       </c>
       <c r="C171" s="7"/>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="4" t="s">
         <v>506</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>507</v>
       </c>
       <c r="F171" s="8">
-        <v>595.0</v>
+        <v>3350.0</v>
       </c>
       <c r="G171" s="6">
-        <v>169.0</v>
+        <v>170.0</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
@@ -9571,7 +9572,7 @@
     </row>
     <row r="172" ht="21.0" customHeight="1">
       <c r="A172" s="6">
-        <v>77.0</v>
+        <v>227.0</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>508</v>
@@ -9584,10 +9585,10 @@
         <v>510</v>
       </c>
       <c r="F172" s="8">
-        <v>3350.0</v>
+        <v>235.0</v>
       </c>
       <c r="G172" s="6">
-        <v>170.0</v>
+        <v>171.0</v>
       </c>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
@@ -9614,7 +9615,7 @@
     </row>
     <row r="173" ht="21.0" customHeight="1">
       <c r="A173" s="6">
-        <v>227.0</v>
+        <v>128.0</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>511</v>
@@ -9627,10 +9628,10 @@
         <v>513</v>
       </c>
       <c r="F173" s="8">
-        <v>235.0</v>
+        <v>5184.0</v>
       </c>
       <c r="G173" s="6">
-        <v>171.0</v>
+        <v>172.0</v>
       </c>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
@@ -9657,7 +9658,7 @@
     </row>
     <row r="174" ht="21.0" customHeight="1">
       <c r="A174" s="6">
-        <v>128.0</v>
+        <v>203.0</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>514</v>
@@ -9666,14 +9667,14 @@
       <c r="D174" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="6" t="s">
         <v>516</v>
       </c>
       <c r="F174" s="8">
-        <v>5184.0</v>
+        <v>336.0</v>
       </c>
       <c r="G174" s="6">
-        <v>172.0</v>
+        <v>173.0</v>
       </c>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
@@ -9700,7 +9701,7 @@
     </row>
     <row r="175" ht="21.0" customHeight="1">
       <c r="A175" s="6">
-        <v>203.0</v>
+        <v>24.0</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>517</v>
@@ -9709,14 +9710,14 @@
       <c r="D175" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E175" s="4" t="s">
         <v>519</v>
       </c>
       <c r="F175" s="8">
-        <v>336.0</v>
+        <v>285.0</v>
       </c>
       <c r="G175" s="6">
-        <v>173.0</v>
+        <v>174.0</v>
       </c>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
@@ -9743,7 +9744,7 @@
     </row>
     <row r="176" ht="21.0" customHeight="1">
       <c r="A176" s="6">
-        <v>24.0</v>
+        <v>60.0</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>520</v>
@@ -9756,10 +9757,10 @@
         <v>522</v>
       </c>
       <c r="F176" s="8">
-        <v>285.0</v>
+        <v>8280.0</v>
       </c>
       <c r="G176" s="6">
-        <v>174.0</v>
+        <v>175.0</v>
       </c>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
@@ -9786,7 +9787,7 @@
     </row>
     <row r="177" ht="21.0" customHeight="1">
       <c r="A177" s="6">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>523</v>
@@ -9802,7 +9803,7 @@
         <v>8280.0</v>
       </c>
       <c r="G177" s="6">
-        <v>175.0</v>
+        <v>176.0</v>
       </c>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
@@ -9829,7 +9830,7 @@
     </row>
     <row r="178" ht="21.0" customHeight="1">
       <c r="A178" s="6">
-        <v>61.0</v>
+        <v>224.0</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>526</v>
@@ -9842,10 +9843,10 @@
         <v>528</v>
       </c>
       <c r="F178" s="8">
-        <v>8280.0</v>
+        <v>126505.0</v>
       </c>
       <c r="G178" s="6">
-        <v>176.0</v>
+        <v>177.0</v>
       </c>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
@@ -9872,7 +9873,7 @@
     </row>
     <row r="179" ht="21.0" customHeight="1">
       <c r="A179" s="6">
-        <v>224.0</v>
+        <v>15.0</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>529</v>
@@ -9885,10 +9886,10 @@
         <v>531</v>
       </c>
       <c r="F179" s="8">
-        <v>126505.0</v>
+        <v>790.0</v>
       </c>
       <c r="G179" s="6">
-        <v>177.0</v>
+        <v>178.0</v>
       </c>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
@@ -9915,7 +9916,7 @@
     </row>
     <row r="180" ht="21.0" customHeight="1">
       <c r="A180" s="6">
-        <v>15.0</v>
+        <v>47.0</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>532</v>
@@ -9928,10 +9929,10 @@
         <v>534</v>
       </c>
       <c r="F180" s="8">
-        <v>790.0</v>
+        <v>748.0</v>
       </c>
       <c r="G180" s="6">
-        <v>178.0</v>
+        <v>179.0</v>
       </c>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
@@ -9958,7 +9959,7 @@
     </row>
     <row r="181" ht="21.0" customHeight="1">
       <c r="A181" s="6">
-        <v>47.0</v>
+        <v>228.0</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>535</v>
@@ -9971,10 +9972,10 @@
         <v>537</v>
       </c>
       <c r="F181" s="8">
-        <v>748.0</v>
+        <v>1827.0</v>
       </c>
       <c r="G181" s="6">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -10001,7 +10002,7 @@
     </row>
     <row r="182" ht="21.0" customHeight="1">
       <c r="A182" s="6">
-        <v>228.0</v>
+        <v>233.0</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>538</v>
@@ -10014,10 +10015,10 @@
         <v>540</v>
       </c>
       <c r="F182" s="8">
-        <v>1827.0</v>
+        <v>1436.0</v>
       </c>
       <c r="G182" s="6">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
@@ -10044,7 +10045,7 @@
     </row>
     <row r="183" ht="21.0" customHeight="1">
       <c r="A183" s="6">
-        <v>233.0</v>
+        <v>230.0</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>541</v>
@@ -10057,10 +10058,10 @@
         <v>543</v>
       </c>
       <c r="F183" s="8">
-        <v>1436.0</v>
+        <v>1849.0</v>
       </c>
       <c r="G183" s="6">
-        <v>181.0</v>
+        <v>182.0</v>
       </c>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
@@ -10087,7 +10088,7 @@
     </row>
     <row r="184" ht="21.0" customHeight="1">
       <c r="A184" s="6">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>544</v>
@@ -10100,10 +10101,10 @@
         <v>546</v>
       </c>
       <c r="F184" s="8">
-        <v>1849.0</v>
+        <v>4189.0</v>
       </c>
       <c r="G184" s="6">
-        <v>182.0</v>
+        <v>183.0</v>
       </c>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
@@ -10130,7 +10131,7 @@
     </row>
     <row r="185" ht="21.0" customHeight="1">
       <c r="A185" s="6">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>547</v>
@@ -10143,10 +10144,10 @@
         <v>549</v>
       </c>
       <c r="F185" s="8">
-        <v>4189.0</v>
+        <v>2036.0</v>
       </c>
       <c r="G185" s="6">
-        <v>183.0</v>
+        <v>184.0</v>
       </c>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
@@ -10173,7 +10174,7 @@
     </row>
     <row r="186" ht="21.0" customHeight="1">
       <c r="A186" s="6">
-        <v>232.0</v>
+        <v>229.0</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>550</v>
@@ -10186,10 +10187,10 @@
         <v>552</v>
       </c>
       <c r="F186" s="8">
-        <v>2036.0</v>
+        <v>1608.0</v>
       </c>
       <c r="G186" s="6">
-        <v>184.0</v>
+        <v>185.0</v>
       </c>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
@@ -10216,7 +10217,7 @@
     </row>
     <row r="187" ht="21.0" customHeight="1">
       <c r="A187" s="6">
-        <v>229.0</v>
+        <v>131.0</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>553</v>
@@ -10229,10 +10230,10 @@
         <v>555</v>
       </c>
       <c r="F187" s="8">
-        <v>1608.0</v>
+        <v>4478.0</v>
       </c>
       <c r="G187" s="6">
-        <v>185.0</v>
+        <v>186.0</v>
       </c>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
@@ -10259,7 +10260,7 @@
     </row>
     <row r="188" ht="21.0" customHeight="1">
       <c r="A188" s="6">
-        <v>131.0</v>
+        <v>3.0</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>556</v>
@@ -10272,10 +10273,10 @@
         <v>558</v>
       </c>
       <c r="F188" s="8">
-        <v>4478.0</v>
+        <v>16095.0</v>
       </c>
       <c r="G188" s="6">
-        <v>186.0</v>
+        <v>187.0</v>
       </c>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
@@ -10302,7 +10303,7 @@
     </row>
     <row r="189" ht="21.0" customHeight="1">
       <c r="A189" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>559</v>
@@ -10315,10 +10316,10 @@
         <v>561</v>
       </c>
       <c r="F189" s="8">
-        <v>16095.0</v>
+        <v>8047.0</v>
       </c>
       <c r="G189" s="6">
-        <v>187.0</v>
+        <v>188.0</v>
       </c>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
@@ -10345,7 +10346,7 @@
     </row>
     <row r="190" ht="21.0" customHeight="1">
       <c r="A190" s="6">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>562</v>
@@ -10358,10 +10359,10 @@
         <v>564</v>
       </c>
       <c r="F190" s="8">
-        <v>8047.0</v>
+        <v>1287.0</v>
       </c>
       <c r="G190" s="6">
-        <v>188.0</v>
+        <v>189.0</v>
       </c>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
@@ -10388,7 +10389,7 @@
     </row>
     <row r="191" ht="21.0" customHeight="1">
       <c r="A191" s="6">
-        <v>9.0</v>
+        <v>78.0</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>565</v>
@@ -10401,10 +10402,10 @@
         <v>567</v>
       </c>
       <c r="F191" s="8">
-        <v>1287.0</v>
+        <v>3783.0</v>
       </c>
       <c r="G191" s="6">
-        <v>189.0</v>
+        <v>190.0</v>
       </c>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
@@ -10431,7 +10432,7 @@
     </row>
     <row r="192" ht="21.0" customHeight="1">
       <c r="A192" s="6">
-        <v>78.0</v>
+        <v>112.0</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>568</v>
@@ -10444,10 +10445,10 @@
         <v>570</v>
       </c>
       <c r="F192" s="8">
-        <v>3783.0</v>
+        <v>5168.0</v>
       </c>
       <c r="G192" s="6">
-        <v>190.0</v>
+        <v>191.0</v>
       </c>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
@@ -10474,7 +10475,7 @@
     </row>
     <row r="193" ht="21.0" customHeight="1">
       <c r="A193" s="6">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>571</v>
@@ -10487,10 +10488,10 @@
         <v>573</v>
       </c>
       <c r="F193" s="8">
-        <v>5168.0</v>
+        <v>9415.0</v>
       </c>
       <c r="G193" s="6">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
@@ -10517,7 +10518,7 @@
     </row>
     <row r="194" ht="21.0" customHeight="1">
       <c r="A194" s="6">
-        <v>113.0</v>
+        <v>215.0</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>574</v>
@@ -10530,10 +10531,10 @@
         <v>576</v>
       </c>
       <c r="F194" s="8">
-        <v>9415.0</v>
+        <v>2925.0</v>
       </c>
       <c r="G194" s="6">
-        <v>192.0</v>
+        <v>193.0</v>
       </c>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
@@ -10560,7 +10561,7 @@
     </row>
     <row r="195" ht="21.0" customHeight="1">
       <c r="A195" s="6">
-        <v>215.0</v>
+        <v>137.0</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>577</v>
@@ -10573,10 +10574,10 @@
         <v>579</v>
       </c>
       <c r="F195" s="8">
-        <v>2925.0</v>
+        <v>1788.0</v>
       </c>
       <c r="G195" s="6">
-        <v>193.0</v>
+        <v>194.0</v>
       </c>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
@@ -10603,7 +10604,7 @@
     </row>
     <row r="196" ht="21.0" customHeight="1">
       <c r="A196" s="6">
-        <v>137.0</v>
+        <v>136.0</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>580</v>
@@ -10613,13 +10614,13 @@
         <v>581</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F196" s="8">
-        <v>1788.0</v>
+        <v>2536.0</v>
       </c>
       <c r="G196" s="6">
-        <v>194.0</v>
+        <v>195.0</v>
       </c>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
@@ -10646,23 +10647,23 @@
     </row>
     <row r="197" ht="21.0" customHeight="1">
       <c r="A197" s="6">
-        <v>136.0</v>
+        <v>138.0</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>581</v>
+        <v>321</v>
       </c>
       <c r="F197" s="8">
-        <v>2536.0</v>
+        <v>2416.0</v>
       </c>
       <c r="G197" s="6">
-        <v>195.0</v>
+        <v>196.0</v>
       </c>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
@@ -10689,23 +10690,25 @@
     </row>
     <row r="198" ht="21.0" customHeight="1">
       <c r="A198" s="6">
-        <v>138.0</v>
+        <v>107.0</v>
       </c>
       <c r="B198" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C198" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="C198" s="7"/>
       <c r="D198" s="4" t="s">
         <v>586</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>324</v>
+        <v>587</v>
       </c>
       <c r="F198" s="8">
-        <v>2416.0</v>
+        <v>10412.0</v>
       </c>
       <c r="G198" s="6">
-        <v>196.0</v>
+        <v>197.0</v>
       </c>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
@@ -10732,14 +10735,12 @@
     </row>
     <row r="199" ht="21.0" customHeight="1">
       <c r="A199" s="6">
-        <v>107.0</v>
+        <v>144.0</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C199" s="7" t="s">
         <v>588</v>
       </c>
+      <c r="C199" s="7"/>
       <c r="D199" s="4" t="s">
         <v>589</v>
       </c>
@@ -10747,10 +10748,10 @@
         <v>590</v>
       </c>
       <c r="F199" s="8">
-        <v>10412.0</v>
+        <v>345.0</v>
       </c>
       <c r="G199" s="6">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
@@ -10777,7 +10778,7 @@
     </row>
     <row r="200" ht="21.0" customHeight="1">
       <c r="A200" s="6">
-        <v>144.0</v>
+        <v>11.0</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>591</v>
@@ -10790,10 +10791,10 @@
         <v>593</v>
       </c>
       <c r="F200" s="8">
-        <v>345.0</v>
+        <v>818.0</v>
       </c>
       <c r="G200" s="6">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
@@ -10820,7 +10821,7 @@
     </row>
     <row r="201" ht="21.0" customHeight="1">
       <c r="A201" s="6">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>594</v>
@@ -10833,10 +10834,10 @@
         <v>596</v>
       </c>
       <c r="F201" s="8">
-        <v>818.0</v>
+        <v>14218.0</v>
       </c>
       <c r="G201" s="6">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
@@ -10863,7 +10864,7 @@
     </row>
     <row r="202" ht="21.0" customHeight="1">
       <c r="A202" s="6">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>597</v>
@@ -10876,10 +10877,10 @@
         <v>599</v>
       </c>
       <c r="F202" s="8">
-        <v>14218.0</v>
+        <v>3793.0</v>
       </c>
       <c r="G202" s="6">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
@@ -10906,7 +10907,7 @@
     </row>
     <row r="203" ht="21.0" customHeight="1">
       <c r="A203" s="6">
-        <v>33.0</v>
+        <v>59.0</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>600</v>
@@ -10919,10 +10920,10 @@
         <v>602</v>
       </c>
       <c r="F203" s="8">
-        <v>3793.0</v>
+        <v>2093.0</v>
       </c>
       <c r="G203" s="6">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
@@ -10949,23 +10950,23 @@
     </row>
     <row r="204" ht="21.0" customHeight="1">
       <c r="A204" s="6">
-        <v>59.0</v>
-      </c>
-      <c r="B204" s="4" t="s">
+        <v>56.0</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>603</v>
       </c>
       <c r="C204" s="7"/>
-      <c r="D204" s="4" t="s">
+      <c r="D204" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E204" s="4" t="s">
+      <c r="E204" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="F204" s="8">
-        <v>2093.0</v>
+      <c r="F204" s="10">
+        <v>2687.0</v>
       </c>
       <c r="G204" s="6">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
@@ -10992,23 +10993,23 @@
     </row>
     <row r="205" ht="21.0" customHeight="1">
       <c r="A205" s="6">
-        <v>56.0</v>
-      </c>
-      <c r="B205" s="4" t="s">
+        <v>55.0</v>
+      </c>
+      <c r="B205" s="11" t="s">
         <v>606</v>
       </c>
       <c r="C205" s="7"/>
-      <c r="D205" s="4" t="s">
+      <c r="D205" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E205" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="F205" s="8">
-        <v>2687.0</v>
+      <c r="F205" s="10">
+        <v>1256.0</v>
       </c>
       <c r="G205" s="6">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
@@ -11035,23 +11036,25 @@
     </row>
     <row r="206" ht="21.0" customHeight="1">
       <c r="A206" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="B206" s="10" t="s">
+        <v>53.0</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C206" s="7"/>
-      <c r="D206" s="9" t="s">
+      <c r="C206" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="E206" s="9" t="s">
+      <c r="D206" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="F206" s="8">
-        <v>4490.0</v>
+      <c r="E206" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="F206" s="10">
+        <v>2449.0</v>
       </c>
       <c r="G206" s="6">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
@@ -11078,13 +11081,13 @@
     </row>
     <row r="207" ht="21.0" customHeight="1">
       <c r="A207" s="6">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>614</v>
@@ -11092,11 +11095,11 @@
       <c r="E207" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="F207" s="8">
-        <v>1256.0</v>
+      <c r="F207" s="10">
+        <v>4490.0</v>
       </c>
       <c r="G207" s="6">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
@@ -11123,14 +11126,12 @@
     </row>
     <row r="208" ht="21.0" customHeight="1">
       <c r="A208" s="6">
-        <v>54.0</v>
+        <v>192.0</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C208" s="7" t="s">
-        <v>603</v>
-      </c>
+      <c r="C208" s="7"/>
       <c r="D208" s="4" t="s">
         <v>617</v>
       </c>
@@ -11138,10 +11139,10 @@
         <v>618</v>
       </c>
       <c r="F208" s="8">
-        <v>2449.0</v>
+        <v>2180.0</v>
       </c>
       <c r="G208" s="6">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -11168,7 +11169,7 @@
     </row>
     <row r="209" ht="21.0" customHeight="1">
       <c r="A209" s="6">
-        <v>192.0</v>
+        <v>165.0</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>619</v>
@@ -11181,10 +11182,10 @@
         <v>621</v>
       </c>
       <c r="F209" s="8">
-        <v>2180.0</v>
+        <v>2188.0</v>
       </c>
       <c r="G209" s="6">
-        <v>207.0</v>
+        <v>208.0</v>
       </c>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
@@ -11211,7 +11212,7 @@
     </row>
     <row r="210" ht="21.0" customHeight="1">
       <c r="A210" s="6">
-        <v>165.0</v>
+        <v>39.0</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>622</v>
@@ -11220,14 +11221,14 @@
       <c r="D210" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="E210" s="4" t="s">
+      <c r="E210" s="6" t="s">
         <v>624</v>
       </c>
       <c r="F210" s="8">
-        <v>2188.0</v>
+        <v>1604.0</v>
       </c>
       <c r="G210" s="6">
-        <v>208.0</v>
+        <v>209.0</v>
       </c>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
@@ -11254,7 +11255,7 @@
     </row>
     <row r="211" ht="21.0" customHeight="1">
       <c r="A211" s="6">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>625</v>
@@ -11263,14 +11264,14 @@
       <c r="D211" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="E211" s="4" t="s">
         <v>627</v>
       </c>
       <c r="F211" s="8">
-        <v>1604.0</v>
+        <v>4177.0</v>
       </c>
       <c r="G211" s="6">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
@@ -11297,7 +11298,7 @@
     </row>
     <row r="212" ht="21.0" customHeight="1">
       <c r="A212" s="6">
-        <v>41.0</v>
+        <v>174.0</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>628</v>
@@ -11310,10 +11311,10 @@
         <v>630</v>
       </c>
       <c r="F212" s="8">
-        <v>4177.0</v>
+        <v>2271.0</v>
       </c>
       <c r="G212" s="6">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
@@ -11340,7 +11341,7 @@
     </row>
     <row r="213" ht="21.0" customHeight="1">
       <c r="A213" s="6">
-        <v>174.0</v>
+        <v>134.0</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>631</v>
@@ -11353,10 +11354,10 @@
         <v>633</v>
       </c>
       <c r="F213" s="8">
-        <v>2271.0</v>
+        <v>910.0</v>
       </c>
       <c r="G213" s="6">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
@@ -11383,7 +11384,7 @@
     </row>
     <row r="214" ht="21.0" customHeight="1">
       <c r="A214" s="6">
-        <v>134.0</v>
+        <v>139.0</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>634</v>
@@ -11396,10 +11397,10 @@
         <v>636</v>
       </c>
       <c r="F214" s="8">
-        <v>910.0</v>
+        <v>1098.0</v>
       </c>
       <c r="G214" s="6">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
@@ -11426,7 +11427,7 @@
     </row>
     <row r="215" ht="21.0" customHeight="1">
       <c r="A215" s="6">
-        <v>139.0</v>
+        <v>90.0</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>637</v>
@@ -11435,14 +11436,12 @@
       <c r="D215" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="E215" s="4" t="s">
-        <v>639</v>
-      </c>
+      <c r="E215" s="4"/>
       <c r="F215" s="8">
-        <v>1098.0</v>
+        <v>675.0</v>
       </c>
       <c r="G215" s="6">
-        <v>213.0</v>
+        <v>214.0</v>
       </c>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
@@ -11469,21 +11468,23 @@
     </row>
     <row r="216" ht="21.0" customHeight="1">
       <c r="A216" s="6">
-        <v>90.0</v>
+        <v>89.0</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E216" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="E216" s="4"/>
       <c r="F216" s="8">
-        <v>675.0</v>
+        <v>506.0</v>
       </c>
       <c r="G216" s="6">
-        <v>214.0</v>
+        <v>215.0</v>
       </c>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
@@ -11510,23 +11511,25 @@
     </row>
     <row r="217" ht="21.0" customHeight="1">
       <c r="A217" s="6">
-        <v>89.0</v>
+        <v>114.0</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C217" s="7"/>
+      <c r="C217" s="7" t="s">
+        <v>643</v>
+      </c>
       <c r="D217" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F217" s="8">
-        <v>506.0</v>
+        <v>1222.0</v>
       </c>
       <c r="G217" s="6">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
@@ -11553,13 +11556,13 @@
     </row>
     <row r="218" ht="21.0" customHeight="1">
       <c r="A218" s="6">
-        <v>114.0</v>
+        <v>119.0</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>647</v>
@@ -11568,10 +11571,10 @@
         <v>648</v>
       </c>
       <c r="F218" s="8">
-        <v>1222.0</v>
+        <v>700.0</v>
       </c>
       <c r="G218" s="6">
-        <v>216.0</v>
+        <v>217.0</v>
       </c>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
@@ -11598,13 +11601,13 @@
     </row>
     <row r="219" ht="21.0" customHeight="1">
       <c r="A219" s="6">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>649</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>650</v>
@@ -11613,10 +11616,10 @@
         <v>651</v>
       </c>
       <c r="F219" s="8">
-        <v>700.0</v>
+        <v>1671.0</v>
       </c>
       <c r="G219" s="6">
-        <v>217.0</v>
+        <v>218.0</v>
       </c>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
@@ -11643,13 +11646,13 @@
     </row>
     <row r="220" ht="21.0" customHeight="1">
       <c r="A220" s="6">
-        <v>118.0</v>
+        <v>115.0</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>652</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>653</v>
@@ -11658,10 +11661,10 @@
         <v>654</v>
       </c>
       <c r="F220" s="8">
-        <v>1671.0</v>
+        <v>1253.0</v>
       </c>
       <c r="G220" s="6">
-        <v>218.0</v>
+        <v>219.0</v>
       </c>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
@@ -11688,25 +11691,25 @@
     </row>
     <row r="221" ht="21.0" customHeight="1">
       <c r="A221" s="6">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>655</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>656</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F221" s="8">
-        <v>1253.0</v>
+        <v>1081.0</v>
       </c>
       <c r="G221" s="6">
-        <v>219.0</v>
+        <v>220.0</v>
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
@@ -11733,25 +11736,25 @@
     </row>
     <row r="222" ht="21.0" customHeight="1">
       <c r="A222" s="6">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C222" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>659</v>
-      </c>
       <c r="E222" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F222" s="8">
-        <v>1081.0</v>
+        <v>2575.0</v>
       </c>
       <c r="G222" s="6">
-        <v>220.0</v>
+        <v>221.0</v>
       </c>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
@@ -11778,25 +11781,25 @@
     </row>
     <row r="223" ht="21.0" customHeight="1">
       <c r="A223" s="6">
-        <v>117.0</v>
+        <v>214.0</v>
       </c>
       <c r="B223" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C223" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>646</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>661</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="F223" s="8">
-        <v>2575.0</v>
+        <v>606.0</v>
       </c>
       <c r="G223" s="6">
-        <v>221.0</v>
+        <v>222.0</v>
       </c>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
@@ -11823,25 +11826,23 @@
     </row>
     <row r="224" ht="21.0" customHeight="1">
       <c r="A224" s="6">
-        <v>214.0</v>
+        <v>177.0</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="C224" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="D224" s="4" t="s">
+      <c r="C224" s="7"/>
+      <c r="D224" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="E224" s="4" t="s">
+      <c r="E224" s="9" t="s">
         <v>665</v>
       </c>
       <c r="F224" s="8">
-        <v>606.0</v>
+        <v>1666.0</v>
       </c>
       <c r="G224" s="6">
-        <v>222.0</v>
+        <v>223.0</v>
       </c>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
@@ -11868,23 +11869,23 @@
     </row>
     <row r="225" ht="21.0" customHeight="1">
       <c r="A225" s="6">
-        <v>177.0</v>
+        <v>29.0</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>666</v>
       </c>
       <c r="C225" s="7"/>
-      <c r="D225" s="9" t="s">
+      <c r="D225" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="E225" s="9" t="s">
+      <c r="E225" s="4" t="s">
         <v>668</v>
       </c>
       <c r="F225" s="8">
-        <v>1666.0</v>
+        <v>527.0</v>
       </c>
       <c r="G225" s="6">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
@@ -11911,7 +11912,7 @@
     </row>
     <row r="226" ht="21.0" customHeight="1">
       <c r="A226" s="6">
-        <v>29.0</v>
+        <v>99.0</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>669</v>
@@ -11924,10 +11925,10 @@
         <v>671</v>
       </c>
       <c r="F226" s="8">
-        <v>527.0</v>
+        <v>5258.0</v>
       </c>
       <c r="G226" s="6">
-        <v>224.0</v>
+        <v>225.0</v>
       </c>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
@@ -11954,7 +11955,7 @@
     </row>
     <row r="227" ht="21.0" customHeight="1">
       <c r="A227" s="6">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>672</v>
@@ -11967,10 +11968,10 @@
         <v>674</v>
       </c>
       <c r="F227" s="8">
-        <v>5258.0</v>
+        <v>10515.0</v>
       </c>
       <c r="G227" s="6">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
@@ -11997,7 +11998,7 @@
     </row>
     <row r="228" ht="21.0" customHeight="1">
       <c r="A228" s="6">
-        <v>98.0</v>
+        <v>188.0</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>675</v>
@@ -12010,10 +12011,10 @@
         <v>677</v>
       </c>
       <c r="F228" s="8">
-        <v>10515.0</v>
+        <v>21793.0</v>
       </c>
       <c r="G228" s="6">
-        <v>226.0</v>
+        <v>227.0</v>
       </c>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
@@ -12040,7 +12041,7 @@
     </row>
     <row r="229" ht="21.0" customHeight="1">
       <c r="A229" s="6">
-        <v>188.0</v>
+        <v>189.0</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>678</v>
@@ -12053,10 +12054,10 @@
         <v>680</v>
       </c>
       <c r="F229" s="8">
-        <v>21793.0</v>
+        <v>9371.0</v>
       </c>
       <c r="G229" s="6">
-        <v>227.0</v>
+        <v>228.0</v>
       </c>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
@@ -12083,23 +12084,25 @@
     </row>
     <row r="230" ht="21.0" customHeight="1">
       <c r="A230" s="6">
-        <v>189.0</v>
+        <v>166.0</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C230" s="7"/>
+      <c r="C230" s="7" t="s">
+        <v>682</v>
+      </c>
       <c r="D230" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F230" s="8">
-        <v>9371.0</v>
+        <v>5988.0</v>
       </c>
       <c r="G230" s="6">
-        <v>228.0</v>
+        <v>229.0</v>
       </c>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
@@ -12126,25 +12129,23 @@
     </row>
     <row r="231" ht="21.0" customHeight="1">
       <c r="A231" s="6">
-        <v>166.0</v>
+        <v>172.0</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="C231" s="7" t="s">
         <v>685</v>
       </c>
+      <c r="C231" s="7"/>
       <c r="D231" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="E231" s="4" t="s">
+      <c r="E231" s="6" t="s">
         <v>687</v>
       </c>
       <c r="F231" s="8">
-        <v>5988.0</v>
+        <v>4507.0</v>
       </c>
       <c r="G231" s="6">
-        <v>229.0</v>
+        <v>230.0</v>
       </c>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
@@ -12171,7 +12172,7 @@
     </row>
     <row r="232" ht="21.0" customHeight="1">
       <c r="A232" s="6">
-        <v>172.0</v>
+        <v>187.0</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>688</v>
@@ -12180,14 +12181,14 @@
       <c r="D232" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="E232" s="4" t="s">
         <v>690</v>
       </c>
       <c r="F232" s="8">
-        <v>4507.0</v>
+        <v>4029.0</v>
       </c>
       <c r="G232" s="6">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
@@ -12214,7 +12215,7 @@
     </row>
     <row r="233" ht="21.0" customHeight="1">
       <c r="A233" s="6">
-        <v>187.0</v>
+        <v>149.0</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>691</v>
@@ -12227,10 +12228,10 @@
         <v>693</v>
       </c>
       <c r="F233" s="8">
-        <v>4029.0</v>
+        <v>2868.0</v>
       </c>
       <c r="G233" s="6">
-        <v>231.0</v>
+        <v>232.0</v>
       </c>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
@@ -12257,23 +12258,25 @@
     </row>
     <row r="234" ht="21.0" customHeight="1">
       <c r="A234" s="6">
-        <v>149.0</v>
+        <v>148.0</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="C234" s="7"/>
+      <c r="C234" s="7" t="s">
+        <v>695</v>
+      </c>
       <c r="D234" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F234" s="8">
-        <v>2868.0</v>
+        <v>5401.0</v>
       </c>
       <c r="G234" s="6">
-        <v>232.0</v>
+        <v>233.0</v>
       </c>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
@@ -12300,25 +12303,21 @@
     </row>
     <row r="235" ht="21.0" customHeight="1">
       <c r="A235" s="6">
-        <v>148.0</v>
+        <v>150.0</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="C235" s="7" t="s">
         <v>698</v>
       </c>
+      <c r="C235" s="7"/>
       <c r="D235" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="E235" s="4" t="s">
-        <v>700</v>
-      </c>
+      <c r="E235" s="4"/>
       <c r="F235" s="8">
-        <v>5401.0</v>
+        <v>4971.0</v>
       </c>
       <c r="G235" s="6">
-        <v>233.0</v>
+        <v>234.0</v>
       </c>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
@@ -12344,23 +12343,13 @@
       <c r="AC235" s="4"/>
     </row>
     <row r="236" ht="21.0" customHeight="1">
-      <c r="A236" s="6">
-        <v>150.0</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
       <c r="C236" s="7"/>
-      <c r="D236" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="D236" s="4"/>
       <c r="E236" s="4"/>
-      <c r="F236" s="8">
-        <v>4971.0</v>
-      </c>
-      <c r="G236" s="6">
-        <v>234.0</v>
-      </c>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
@@ -12384,10 +12373,10 @@
       <c r="AB236" s="4"/>
       <c r="AC236" s="4"/>
     </row>
-    <row r="237" ht="21.0" customHeight="1">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="7"/>
+      <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
@@ -36037,37 +36026,6 @@
       <c r="AB999" s="4"/>
       <c r="AC999" s="4"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-      <c r="P1000" s="4"/>
-      <c r="Q1000" s="4"/>
-      <c r="R1000" s="4"/>
-      <c r="S1000" s="4"/>
-      <c r="T1000" s="4"/>
-      <c r="U1000" s="4"/>
-      <c r="V1000" s="4"/>
-      <c r="W1000" s="4"/>
-      <c r="X1000" s="4"/>
-      <c r="Y1000" s="4"/>
-      <c r="Z1000" s="4"/>
-      <c r="AA1000" s="4"/>
-      <c r="AB1000" s="4"/>
-      <c r="AC1000" s="4"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
